--- a/data/trans_orig/Q5412-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5412-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>4504</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1704</v>
+        <v>1714</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10643</v>
+        <v>10151</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01539313773099063</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005822289550125061</v>
+        <v>0.005858583950307153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03637493326331483</v>
+        <v>0.03469415691241586</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -765,19 +765,19 @@
         <v>8418</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>3928</v>
+        <v>4507</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15095</v>
+        <v>15432</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02454718327160386</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01145475670014245</v>
+        <v>0.01314330332245761</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.04401830506309505</v>
+        <v>0.04500091186538455</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -786,19 +786,19 @@
         <v>12922</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7471</v>
+        <v>7328</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21007</v>
+        <v>22102</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02033279071934117</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01175548029916678</v>
+        <v>0.01153026608973041</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03305543221767707</v>
+        <v>0.03477795628543375</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>288079</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>281940</v>
+        <v>282432</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>290879</v>
+        <v>290869</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9846068622690094</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9636250667366839</v>
+        <v>0.9653058430875843</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9941777104498749</v>
+        <v>0.9941414160496929</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>362</v>
@@ -836,19 +836,19 @@
         <v>334516</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>327839</v>
+        <v>327502</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>339006</v>
+        <v>338427</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9754528167283961</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9559816949369051</v>
+        <v>0.9549990881346155</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9885452432998575</v>
+        <v>0.9868566966775424</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>660</v>
@@ -857,19 +857,19 @@
         <v>622595</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>614510</v>
+        <v>613415</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>628046</v>
+        <v>628189</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9796672092806589</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.966944567782323</v>
+        <v>0.9652220437145663</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9882445197008333</v>
+        <v>0.9884697339102696</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>10965</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6274</v>
+        <v>6352</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18965</v>
+        <v>19506</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05224296966051489</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.029894605030406</v>
+        <v>0.03026223615071752</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0903592067183257</v>
+        <v>0.09293714618229666</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -982,19 +982,19 @@
         <v>18948</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11754</v>
+        <v>11634</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>30120</v>
+        <v>29467</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05674683501464536</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03520265744573279</v>
+        <v>0.03484320882412033</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0902044983993826</v>
+        <v>0.08824974976128194</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>29</v>
@@ -1003,19 +1003,19 @@
         <v>29913</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>19725</v>
+        <v>20192</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>41878</v>
+        <v>43523</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05500851127585206</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0362739498478718</v>
+        <v>0.03713122195048818</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07701081871420212</v>
+        <v>0.08003653036325717</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>198918</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>190918</v>
+        <v>190377</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>203609</v>
+        <v>203531</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9477570303394851</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9096407932816749</v>
+        <v>0.9070628538177041</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9701053949695942</v>
+        <v>0.9697377638492826</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>273</v>
@@ -1053,19 +1053,19 @@
         <v>314960</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>303788</v>
+        <v>304441</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>322154</v>
+        <v>322274</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9432531649853546</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9097955016006175</v>
+        <v>0.9117502502387184</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9647973425542673</v>
+        <v>0.9651567911758797</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>481</v>
@@ -1074,19 +1074,19 @@
         <v>513878</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>501913</v>
+        <v>500268</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>524066</v>
+        <v>523599</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.944991488724148</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9229891812857977</v>
+        <v>0.9199634696367428</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9637260501521279</v>
+        <v>0.9628687780495118</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>15469</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9177</v>
+        <v>9901</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>24451</v>
+        <v>24848</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03078553080878009</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01826391542892521</v>
+        <v>0.01970541533937428</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04866117329393109</v>
+        <v>0.0494528093214738</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>26</v>
@@ -1199,19 +1199,19 @@
         <v>27366</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>17552</v>
+        <v>18554</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>38695</v>
+        <v>40174</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04043231174706541</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.02593164612697657</v>
+        <v>0.02741279307595707</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05716940224508994</v>
+        <v>0.05935484914251669</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>43</v>
@@ -1220,19 +1220,19 @@
         <v>42835</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31236</v>
+        <v>31094</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57154</v>
+        <v>57075</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03632212215309295</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02648636264773876</v>
+        <v>0.02636632816137748</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04846369327719988</v>
+        <v>0.04839666032135107</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>486997</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>478015</v>
+        <v>477618</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>493289</v>
+        <v>492565</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9692144691912199</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.951338826706069</v>
+        <v>0.9505471906785258</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9817360845710749</v>
+        <v>0.9802945846606257</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>635</v>
@@ -1270,19 +1270,19 @@
         <v>649476</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>638147</v>
+        <v>636668</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>659290</v>
+        <v>658288</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9595676882529346</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9428305977549101</v>
+        <v>0.9406451508574833</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9740683538730235</v>
+        <v>0.972587206924043</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1141</v>
@@ -1291,19 +1291,19 @@
         <v>1136473</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1122154</v>
+        <v>1122233</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1148072</v>
+        <v>1148214</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9636778778469071</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9515363067228009</v>
+        <v>0.9516033396786487</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9735136373522614</v>
+        <v>0.9736336718386225</v>
       </c>
     </row>
     <row r="12">
@@ -1633,19 +1633,19 @@
         <v>10208</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5222</v>
+        <v>4863</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17507</v>
+        <v>17190</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03295150390238489</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01685809220742839</v>
+        <v>0.01569934981244896</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05651437516856538</v>
+        <v>0.05549104370018221</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -1654,19 +1654,19 @@
         <v>13736</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7800</v>
+        <v>7937</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>22617</v>
+        <v>21941</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0388015369309189</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02203394245161924</v>
+        <v>0.02242188622394042</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06389011398306794</v>
+        <v>0.06198095091659615</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>24</v>
@@ -1675,19 +1675,19 @@
         <v>23944</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>15499</v>
+        <v>15743</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34013</v>
+        <v>34178</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03607133499634682</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02334928174453126</v>
+        <v>0.02371648553264232</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05124150886257745</v>
+        <v>0.05148933184283851</v>
       </c>
     </row>
     <row r="5">
@@ -1704,19 +1704,19 @@
         <v>299578</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>292279</v>
+        <v>292596</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>304564</v>
+        <v>304923</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9670484960976151</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9434856248314354</v>
+        <v>0.9445089562998178</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9831419077925717</v>
+        <v>0.984300650187551</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>330</v>
@@ -1725,19 +1725,19 @@
         <v>340260</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>331379</v>
+        <v>332055</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>346196</v>
+        <v>346059</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9611984630690811</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.936109886016932</v>
+        <v>0.9380190490834037</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9779660575483807</v>
+        <v>0.9775781137760596</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>602</v>
@@ -1746,19 +1746,19 @@
         <v>639838</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>629769</v>
+        <v>629604</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>648283</v>
+        <v>648039</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9639286650036532</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9487584911374225</v>
+        <v>0.9485106681571616</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9766507182554686</v>
+        <v>0.9762835144673577</v>
       </c>
     </row>
     <row r="6">
@@ -1850,19 +1850,19 @@
         <v>24785</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16235</v>
+        <v>16006</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37230</v>
+        <v>36459</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.09919977793431931</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06498021957234043</v>
+        <v>0.06406052339427565</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1490093571395548</v>
+        <v>0.145922292257995</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>57</v>
@@ -1871,19 +1871,19 @@
         <v>64788</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49206</v>
+        <v>50117</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>80290</v>
+        <v>81724</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1665586270659251</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1265008666708984</v>
+        <v>0.1288432455737947</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2064131084225496</v>
+        <v>0.2100977688807152</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>78</v>
@@ -1892,19 +1892,19 @@
         <v>89573</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>72694</v>
+        <v>73265</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>109770</v>
+        <v>112530</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1402141068247029</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1137923091356193</v>
+        <v>0.1146863215926959</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1718294377399073</v>
+        <v>0.1761505078314226</v>
       </c>
     </row>
     <row r="8">
@@ -1921,19 +1921,19 @@
         <v>225066</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>212621</v>
+        <v>213392</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>233616</v>
+        <v>233845</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9008002220656807</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8509906428604451</v>
+        <v>0.8540777077420046</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9350197804276597</v>
+        <v>0.935939476605724</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>293</v>
@@ -1942,19 +1942,19 @@
         <v>324191</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>308689</v>
+        <v>307255</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>339773</v>
+        <v>338862</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8334413729340748</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7935868915774505</v>
+        <v>0.7899022311192847</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8734991333291017</v>
+        <v>0.8711567544262053</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>494</v>
@@ -1963,19 +1963,19 @@
         <v>549257</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>529060</v>
+        <v>526300</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>566136</v>
+        <v>565565</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8597858931752971</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8281705622600927</v>
+        <v>0.8238494921685774</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8862076908643807</v>
+        <v>0.8853136784073041</v>
       </c>
     </row>
     <row r="9">
@@ -2067,19 +2067,19 @@
         <v>34993</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24613</v>
+        <v>23993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>48171</v>
+        <v>47952</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06252815223136708</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04398036274270583</v>
+        <v>0.04287187923239322</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08607469512090239</v>
+        <v>0.08568457827733147</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -2088,19 +2088,19 @@
         <v>78523</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>61050</v>
+        <v>60690</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97757</v>
+        <v>96024</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1056878049742433</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08216990844749889</v>
+        <v>0.0816847711868993</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1315755077599474</v>
+        <v>0.1292425276494208</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>102</v>
@@ -2109,19 +2109,19 @@
         <v>113516</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>93265</v>
+        <v>94263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>136941</v>
+        <v>135784</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08714526160233066</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07159823578001577</v>
+        <v>0.07236440647329997</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1051279014774795</v>
+        <v>0.1042400574421543</v>
       </c>
     </row>
     <row r="11">
@@ -2138,19 +2138,19 @@
         <v>524644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>511466</v>
+        <v>511685</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>535024</v>
+        <v>535644</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9374718477686329</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9139253048790973</v>
+        <v>0.9143154217226689</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9560196372572941</v>
+        <v>0.9571281207676069</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>623</v>
@@ -2159,19 +2159,19 @@
         <v>664452</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>645218</v>
+        <v>646951</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>681925</v>
+        <v>682285</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8943121950257568</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8684244922400524</v>
+        <v>0.8707574723505792</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9178300915525006</v>
+        <v>0.9183152288131007</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1096</v>
@@ -2180,19 +2180,19 @@
         <v>1189096</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1165671</v>
+        <v>1166828</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1209347</v>
+        <v>1208349</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9128547383976693</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8948720985225203</v>
+        <v>0.8957599425578454</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.928401764219984</v>
+        <v>0.9276355935266999</v>
       </c>
     </row>
     <row r="12">
@@ -2522,19 +2522,19 @@
         <v>5016</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1967</v>
+        <v>1940</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10932</v>
+        <v>11013</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01500183314499844</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005882306287069405</v>
+        <v>0.005802472965514537</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03269754078448917</v>
+        <v>0.03294135595946279</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -2543,19 +2543,19 @@
         <v>6249</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2173</v>
+        <v>2181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13415</v>
+        <v>12470</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01654191510249732</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.00575188311125703</v>
+        <v>0.005773711283078298</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03551095013077123</v>
+        <v>0.03301098764133296</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -2564,19 +2564,19 @@
         <v>11264</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6014</v>
+        <v>6156</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19477</v>
+        <v>20826</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01581884055849259</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008444854840379488</v>
+        <v>0.008644481802023716</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02735228326926101</v>
+        <v>0.02924605917724043</v>
       </c>
     </row>
     <row r="5">
@@ -2593,19 +2593,19 @@
         <v>329314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>323398</v>
+        <v>323317</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>332363</v>
+        <v>332390</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9849981668550015</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9673024592155107</v>
+        <v>0.9670586440405375</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9941176937129306</v>
+        <v>0.9941975270344855</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>348</v>
@@ -2614,19 +2614,19 @@
         <v>371513</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>364347</v>
+        <v>365292</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>375589</v>
+        <v>375581</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9834580848975026</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9644890498692285</v>
+        <v>0.9669890123586671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9942481168887428</v>
+        <v>0.9942262887169218</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>668</v>
@@ -2635,19 +2635,19 @@
         <v>700828</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>692615</v>
+        <v>691266</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>706078</v>
+        <v>705936</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9841811594415074</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9726477167307391</v>
+        <v>0.9707539408227596</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9915551451596205</v>
+        <v>0.9913555181979763</v>
       </c>
     </row>
     <row r="6">
@@ -2739,19 +2739,19 @@
         <v>16826</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10647</v>
+        <v>10329</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25750</v>
+        <v>25606</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.06547323172253418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04142903669594152</v>
+        <v>0.0401918404397718</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1001958702562329</v>
+        <v>0.0996362074577819</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -2760,19 +2760,19 @@
         <v>47157</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>35308</v>
+        <v>33866</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>63905</v>
+        <v>63309</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1178430790174416</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08823190621144079</v>
+        <v>0.08462984003227947</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1596946067679398</v>
+        <v>0.1582063513575384</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>54</v>
@@ -2781,19 +2781,19 @@
         <v>63984</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49798</v>
+        <v>48698</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>83370</v>
+        <v>79564</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09736282656909917</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07577726892023617</v>
+        <v>0.07410267664990113</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1268623956745709</v>
+        <v>0.1210709832742316</v>
       </c>
     </row>
     <row r="8">
@@ -2810,19 +2810,19 @@
         <v>240172</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>231248</v>
+        <v>231392</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>246351</v>
+        <v>246669</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9345267682774658</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.899804129743767</v>
+        <v>0.900363792542218</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9585709633040582</v>
+        <v>0.9598081595602281</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>266</v>
@@ -2831,19 +2831,19 @@
         <v>353012</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>336264</v>
+        <v>336860</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>364861</v>
+        <v>366303</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8821569209825584</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8403053932320604</v>
+        <v>0.8417936486424616</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9117680937885592</v>
+        <v>0.9153701599677202</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>549</v>
@@ -2852,19 +2852,19 @@
         <v>593183</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>573797</v>
+        <v>577603</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>607369</v>
+        <v>608469</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9026371734309009</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8731376043254291</v>
+        <v>0.8789290167257683</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9242227310797638</v>
+        <v>0.9258973233500989</v>
       </c>
     </row>
     <row r="9">
@@ -2956,19 +2956,19 @@
         <v>21842</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14361</v>
+        <v>14012</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31366</v>
+        <v>30937</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03693728786044777</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02428582029756736</v>
+        <v>0.02369610530868747</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.05304403587404487</v>
+        <v>0.05231734419042662</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -2977,19 +2977,19 @@
         <v>53406</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>38084</v>
+        <v>38867</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>68462</v>
+        <v>72647</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06865140214039389</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04895554843587688</v>
+        <v>0.04996232495392537</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08800521869244551</v>
+        <v>0.09338487918042566</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>65</v>
@@ -2998,19 +2998,19 @@
         <v>75248</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>58369</v>
+        <v>58349</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>96130</v>
+        <v>95326</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05495534920927032</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04262804685368558</v>
+        <v>0.04261360663764485</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07020549810786976</v>
+        <v>0.06961853435274629</v>
       </c>
     </row>
     <row r="11">
@@ -3027,19 +3027,19 @@
         <v>569486</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>559962</v>
+        <v>560391</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>576967</v>
+        <v>577316</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9630627121395522</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9469559641259552</v>
+        <v>0.9476826558095734</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9757141797024327</v>
+        <v>0.9763038946913125</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>614</v>
@@ -3048,19 +3048,19 @@
         <v>724525</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>709469</v>
+        <v>705284</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>739847</v>
+        <v>739064</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9313485978596061</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9119947813075544</v>
+        <v>0.9066151208195746</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9510444515641231</v>
+        <v>0.9500376750460755</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1217</v>
@@ -3069,19 +3069,19 @@
         <v>1294011</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1273129</v>
+        <v>1273933</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1310890</v>
+        <v>1310910</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9450446507907296</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9297945018921301</v>
+        <v>0.9303814656472538</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9573719531463144</v>
+        <v>0.9573863933623551</v>
       </c>
     </row>
     <row r="12">
@@ -3411,19 +3411,19 @@
         <v>6410</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3026</v>
+        <v>3130</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11360</v>
+        <v>12099</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01574624355528523</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007432978151504606</v>
+        <v>0.007689561833202577</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02790719102236281</v>
+        <v>0.02972097378589332</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>16</v>
@@ -3432,19 +3432,19 @@
         <v>8714</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5404</v>
+        <v>5028</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13602</v>
+        <v>13672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01987929376167746</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01232871452992203</v>
+        <v>0.01146958421261805</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03102885930320365</v>
+        <v>0.03119026076206267</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -3453,19 +3453,19 @@
         <v>15124</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9740</v>
+        <v>9873</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21833</v>
+        <v>21478</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01788921994607133</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01152041243926648</v>
+        <v>0.01167777033879721</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0258241745681061</v>
+        <v>0.02540429452993702</v>
       </c>
     </row>
     <row r="5">
@@ -3482,19 +3482,19 @@
         <v>400670</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>395720</v>
+        <v>394981</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>404054</v>
+        <v>403950</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9842537564447147</v>
+        <v>0.9842537564447149</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9720928089776367</v>
+        <v>0.9702790262141068</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9925670218484952</v>
+        <v>0.9923104381667973</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>809</v>
@@ -3503,19 +3503,19 @@
         <v>429643</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>424755</v>
+        <v>424685</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>432953</v>
+        <v>433329</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.9801207062383225</v>
+        <v>0.9801207062383226</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9689711406967964</v>
+        <v>0.968809739237937</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.987671285470078</v>
+        <v>0.9885304157873817</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1369</v>
@@ -3524,19 +3524,19 @@
         <v>830312</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>823603</v>
+        <v>823958</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>835696</v>
+        <v>835563</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9821107800539287</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9741758254318947</v>
+        <v>0.9745957054700628</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9884795875607335</v>
+        <v>0.9883222296612028</v>
       </c>
     </row>
     <row r="6">
@@ -3628,19 +3628,19 @@
         <v>27224</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19807</v>
+        <v>19832</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36057</v>
+        <v>35938</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.08801588417514686</v>
+        <v>0.08801588417514683</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06403727249778937</v>
+        <v>0.06411664073874053</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1165710136056981</v>
+        <v>0.1161863160525567</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>151</v>
@@ -3649,19 +3649,19 @@
         <v>78569</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67314</v>
+        <v>66167</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90958</v>
+        <v>90495</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1691078174951064</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1448820597255538</v>
+        <v>0.1424139215401676</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1957732146105065</v>
+        <v>0.194775977485024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>194</v>
@@ -3670,19 +3670,19 @@
         <v>105793</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>92723</v>
+        <v>91293</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>121737</v>
+        <v>121220</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.136697937110266</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1198095805342859</v>
+        <v>0.1179623480715782</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1572997881687534</v>
+        <v>0.1566307484672306</v>
       </c>
     </row>
     <row r="8">
@@ -3699,19 +3699,19 @@
         <v>282088</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>273255</v>
+        <v>273374</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>289505</v>
+        <v>289480</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9119841158248532</v>
+        <v>0.9119841158248531</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.883428986394302</v>
+        <v>0.8838136839474431</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9359627275022105</v>
+        <v>0.9358833592612593</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>730</v>
@@ -3720,19 +3720,19 @@
         <v>386040</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>373651</v>
+        <v>374114</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>397295</v>
+        <v>398442</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8308921825048936</v>
+        <v>0.8308921825048935</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8042267853894937</v>
+        <v>0.805224022514976</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8551179402744468</v>
+        <v>0.8575860784598324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1144</v>
@@ -3741,19 +3741,19 @@
         <v>668127</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>652183</v>
+        <v>652700</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>681197</v>
+        <v>682627</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.863302062889734</v>
+        <v>0.8633020628897341</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8427002118312465</v>
+        <v>0.8433692515327694</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8801904194657141</v>
+        <v>0.8820376519284215</v>
       </c>
     </row>
     <row r="9">
@@ -3845,19 +3845,19 @@
         <v>33634</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>25682</v>
+        <v>25197</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>44040</v>
+        <v>44382</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04694963273659322</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03584906608638413</v>
+        <v>0.0351716875318175</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06147504663500755</v>
+        <v>0.06195267699940079</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>167</v>
@@ -3866,19 +3866,19 @@
         <v>87283</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>75298</v>
+        <v>75041</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103284</v>
+        <v>102665</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.0966628465951305</v>
+        <v>0.09666284659513046</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.08338934389761554</v>
+        <v>0.08310521366104764</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1143827910197786</v>
+        <v>0.1136978405885358</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>220</v>
@@ -3887,19 +3887,19 @@
         <v>120918</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>105160</v>
+        <v>106528</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>138388</v>
+        <v>138699</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.07467009694370975</v>
+        <v>0.07467009694370977</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0649392294568337</v>
+        <v>0.06578400305958419</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08545863077793638</v>
+        <v>0.08565063442942365</v>
       </c>
     </row>
     <row r="11">
@@ -3916,19 +3916,19 @@
         <v>682757</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>672351</v>
+        <v>672009</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>690709</v>
+        <v>691194</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9530503672634068</v>
+        <v>0.9530503672634069</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9385249533649923</v>
+        <v>0.9380473230005992</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9641509339136157</v>
+        <v>0.964828312468182</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1539</v>
@@ -3937,19 +3937,19 @@
         <v>815683</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>799682</v>
+        <v>800301</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>827668</v>
+        <v>827925</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9033371534048696</v>
+        <v>0.9033371534048695</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8856172089802209</v>
+        <v>0.8863021594114643</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9166106561023841</v>
+        <v>0.9168947863389523</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2513</v>
@@ -3958,19 +3958,19 @@
         <v>1498439</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1480969</v>
+        <v>1480658</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1514197</v>
+        <v>1512829</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9253299030562901</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9145413692220637</v>
+        <v>0.9143493655705763</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9350607705431662</v>
+        <v>0.9342159969404158</v>
       </c>
     </row>
     <row r="12">
